--- a/prep_data/2025_scores.xlsx
+++ b/prep_data/2025_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6285,6 +6285,906 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>14</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>12/04/2025</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Detroit Lions</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>14</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Washington Commanders</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Minnesota Vikings</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>14</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Miami Dolphins</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>New York Jets</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>14</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Seattle Seahawks</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Atlanta Falcons</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>14</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Pittsburgh Steelers</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Baltimore Ravens</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>14</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>New Orleans Saints</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Tampa Bay Buccaneers</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>14</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Indianapolis Colts</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Jacksonville Jaguars</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>14</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Tennessee Titans</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Cleveland Browns</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>14</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Cincinnati Bengals</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Buffalo Bills</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>14</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Denver Broncos</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Las Vegas Raiders</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>14</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Chicago Bears</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Green Bay Packers</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>14</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Los Angeles Rams</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Arizona Cardinals</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>14</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Houston Texans</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Kansas City Chiefs</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>14</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>12/08/2025</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Philadelphia Eagles</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Los Angeles Chargers</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>15</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Atlanta Falcons</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Tampa Bay Buccaneers</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>15</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Arizona Cardinals</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Houston Texans</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>15</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Cleveland Browns</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Chicago Bears</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>15</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Los Angeles Chargers</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Kansas City Chiefs</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>15</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Baltimore Ravens</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Cincinnati Bengals</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>15</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Buffalo Bills</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>New England Patriots</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>15</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Washington Commanders</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>New York Giants</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>15</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Las Vegas Raiders</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Philadelphia Eagles</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>15</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>New York Jets</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Jacksonville Jaguars</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>15</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Tennessee Titans</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>San Francisco 49ers</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>15</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Indianapolis Colts</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Seattle Seahawks</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>15</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Detroit Lions</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Los Angeles Rams</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>15</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Green Bay Packers</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Denver Broncos</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>15</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Carolina Panthers</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>New Orleans Saints</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>15</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>12/14/2025</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Minnesota Vikings</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>15</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>12/15/2025</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Miami Dolphins</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Pittsburgh Steelers</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
